--- a/data/Survey_Data_analysis - Kopie.xlsx
+++ b/data/Survey_Data_analysis - Kopie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DrosophilaCitizenScience\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF39136A-5C7C-4D73-A30A-FA909DB1755B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC61458C-7D69-4C54-B30A-89CFD5E69A52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18200" windowHeight="8510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="134">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Bachelor</t>
   </si>
   <si>
-    <t>Harald Krenn machte in einer Veranstaltung Werbung dafür</t>
-  </si>
-  <si>
     <t>Mein Wissensstand.</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t xml:space="preserve">Ich würde nur gerne wissen, ob man von seinen Fallen die Artenliste bekommt. Bei mir war nämlich eine extrem große Drosophila dabei </t>
   </si>
   <si>
-    <t>Medien (Radio, Zeitung, Soziale Medien)</t>
-  </si>
-  <si>
     <t>Mein Wissensstand., Ich habe ein erhöhtes Bewusstsein für Organismen in meinem eigenen Umweld/in der Umwelt., Meine Einstellung zu Fliegen hat sich verbessert.</t>
   </si>
   <si>
@@ -221,9 +215,6 @@
     <t>Keine</t>
   </si>
   <si>
-    <t>Von CityFly höchstpersönlich</t>
-  </si>
-  <si>
     <t>passt alles</t>
   </si>
   <si>
@@ -248,9 +239,6 @@
     <t>30-40</t>
   </si>
   <si>
-    <t>Museumsveranstaltungen (z.B., Lange Nacht der Museen), Von Bekannten/Arbeitskolleg*innen</t>
-  </si>
-  <si>
     <t>Mein Wissensstand., Meine Einstellung zu Fliegen hat sich verbessert.</t>
   </si>
   <si>
@@ -293,9 +281,6 @@
     <t>hab nichts</t>
   </si>
   <si>
-    <t xml:space="preserve">persönlicher Kontakt </t>
-  </si>
-  <si>
     <t>Mein Bewusstsein für Biodiversität insgesamt., Mein Wissensstand., Meine Einstellung zu Fliegen hat sich verbessert., Wissenschaft ist für mich greifbarer geworden.</t>
   </si>
   <si>
@@ -335,18 +320,12 @@
     <t>Mein Wissensstand., Ich habe ein erhöhtes Bewusstsein für Organismen in meinem eigenen Umweld/in der Umwelt., Meine Einstellung zu Fliegen hat sich verbessert., Wissenschaft ist für mich greifbarer geworden.</t>
   </si>
   <si>
-    <t>Museumsveranstaltungen (z.B., Lange Nacht der Museen)</t>
-  </si>
-  <si>
     <t>Mein Bewusstsein für Biodiversität insgesamt., Mein Wissensstand., Ich habe ein erhöhtes Bewusstsein für Organismen in meinem eigenen Umweld/in der Umwelt., Wissenschaft ist für mich greifbarer geworden.</t>
   </si>
   <si>
     <t>Ich hatte zuhause keine Fliegen und konnte daher keine Fallen abgeben., Ich konnte aus zeitlichen/persönlichen Gründen nicht aktiv sammeln.</t>
   </si>
   <si>
-    <t>Projektmitarbeiterin</t>
-  </si>
-  <si>
     <t>keine Verbesserungsvorschläge</t>
   </si>
   <si>
@@ -407,9 +386,6 @@
     <t>well done!</t>
   </si>
   <si>
-    <t>Email an MedUniWien-Mitarbeiter</t>
-  </si>
-  <si>
     <t>Mein Wissensstand., Meine Einstellung zu Fliegen hat sich verbessert., Wissenschaft ist für mich greifbarer geworden.</t>
   </si>
   <si>
@@ -437,10 +413,16 @@
     <t>-</t>
   </si>
   <si>
-    <t>am Arbeitsplatz (NHM)</t>
-  </si>
-  <si>
     <t>nichts anzufügen</t>
+  </si>
+  <si>
+    <t>Museumsveranstaltungen, Von Bekannten/Arbeitskolleg*innen</t>
+  </si>
+  <si>
+    <t>Museumsveranstaltungen</t>
+  </si>
+  <si>
+    <t>Medien</t>
   </si>
 </sst>
 </file>
@@ -1013,9 +995,9 @@
   </sheetPr>
   <dimension ref="A1:AN60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:AN60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1290,80 +1272,80 @@
       <c r="D3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="8">
+        <v>5</v>
+      </c>
+      <c r="I3" s="8">
+        <v>5</v>
+      </c>
+      <c r="J3" s="8">
+        <v>5</v>
+      </c>
+      <c r="K3" s="8">
+        <v>5</v>
+      </c>
+      <c r="L3" s="8">
+        <v>5</v>
+      </c>
+      <c r="M3" s="8">
+        <v>5</v>
+      </c>
+      <c r="N3" s="8">
+        <v>5</v>
+      </c>
+      <c r="O3" s="8">
+        <v>5</v>
+      </c>
+      <c r="P3" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>5</v>
+      </c>
+      <c r="R3" s="8">
+        <v>5</v>
+      </c>
+      <c r="S3" s="8">
+        <v>5</v>
+      </c>
+      <c r="T3" s="8">
+        <v>5</v>
+      </c>
+      <c r="U3" s="8">
+        <v>5</v>
+      </c>
+      <c r="V3" s="8">
+        <v>5</v>
+      </c>
+      <c r="W3" s="8">
+        <v>5</v>
+      </c>
+      <c r="X3" s="8">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="8">
-        <v>5</v>
-      </c>
-      <c r="I3" s="8">
-        <v>5</v>
-      </c>
-      <c r="J3" s="8">
-        <v>5</v>
-      </c>
-      <c r="K3" s="8">
-        <v>5</v>
-      </c>
-      <c r="L3" s="8">
-        <v>5</v>
-      </c>
-      <c r="M3" s="8">
-        <v>5</v>
-      </c>
-      <c r="N3" s="8">
-        <v>5</v>
-      </c>
-      <c r="O3" s="8">
-        <v>5</v>
-      </c>
-      <c r="P3" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>5</v>
-      </c>
-      <c r="R3" s="8">
-        <v>5</v>
-      </c>
-      <c r="S3" s="8">
-        <v>5</v>
-      </c>
-      <c r="T3" s="8">
-        <v>5</v>
-      </c>
-      <c r="U3" s="8">
-        <v>5</v>
-      </c>
-      <c r="V3" s="8">
-        <v>5</v>
-      </c>
-      <c r="W3" s="8">
-        <v>5</v>
-      </c>
-      <c r="X3" s="8">
-        <v>5</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>5</v>
-      </c>
-      <c r="AA3" s="8">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="8">
-        <v>3</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="AD3" s="8">
         <v>5</v>
@@ -1373,13 +1355,13 @@
       </c>
       <c r="AF3" s="11"/>
       <c r="AG3" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH3" s="7" t="s">
         <v>47</v>
       </c>
       <c r="AI3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AJ3" s="9">
         <v>5</v>
@@ -1411,7 +1393,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>44</v>
@@ -1483,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="AC4" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD4" s="15">
         <v>5</v>
@@ -1493,13 +1475,13 @@
       </c>
       <c r="AF4" s="11"/>
       <c r="AG4" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH4" s="14" t="s">
         <v>47</v>
       </c>
       <c r="AI4" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AJ4" s="9">
         <v>4</v>
@@ -1522,7 +1504,7 @@
         <v>45647.597951388889</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>49</v>
@@ -1534,7 +1516,7 @@
         <v>43</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>44</v>
@@ -1603,7 +1585,7 @@
         <v>3</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AD5" s="8">
         <v>5</v>
@@ -1613,13 +1595,13 @@
       </c>
       <c r="AF5" s="11"/>
       <c r="AG5" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AH5" s="7" t="s">
         <v>47</v>
       </c>
       <c r="AI5" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AJ5" s="9">
         <v>3.8</v>
@@ -1648,13 +1630,13 @@
         <v>41</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>44</v>
@@ -1723,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="AC6" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AD6" s="15">
         <v>5</v>
@@ -1733,7 +1715,7 @@
       </c>
       <c r="AF6" s="11"/>
       <c r="AG6" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AH6" s="14" t="s">
         <v>47</v>
@@ -1769,10 +1751,10 @@
         <v>42</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>44</v>
@@ -1841,7 +1823,7 @@
         <v>4</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD7" s="8">
         <v>5</v>
@@ -1851,13 +1833,13 @@
       </c>
       <c r="AF7" s="11"/>
       <c r="AG7" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AH7" s="7" t="s">
         <v>47</v>
       </c>
       <c r="AI7" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AJ7" s="9">
         <v>4.4000000000000004</v>
@@ -1880,7 +1862,7 @@
         <v>45647.610578703701</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>41</v>
@@ -1892,7 +1874,7 @@
         <v>43</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>44</v>
@@ -1961,7 +1943,7 @@
         <v>5</v>
       </c>
       <c r="AC8" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD8" s="15">
         <v>5</v>
@@ -1971,7 +1953,7 @@
       </c>
       <c r="AF8" s="11"/>
       <c r="AG8" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AH8" s="14" t="s">
         <v>47</v>
@@ -2004,13 +1986,13 @@
         <v>49</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>44</v>
@@ -2079,7 +2061,7 @@
         <v>3</v>
       </c>
       <c r="AC9" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AD9" s="8">
         <v>5</v>
@@ -2089,7 +2071,7 @@
       </c>
       <c r="AF9" s="11"/>
       <c r="AG9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH9" s="7" t="s">
         <v>47</v>
@@ -2122,10 +2104,10 @@
         <v>49</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>44</v>
@@ -2197,7 +2179,7 @@
         <v>5</v>
       </c>
       <c r="AC10" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AD10" s="15">
         <v>5</v>
@@ -2207,7 +2189,7 @@
       </c>
       <c r="AF10" s="11"/>
       <c r="AG10" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH10" s="14" t="s">
         <v>47</v>
@@ -2234,7 +2216,7 @@
         <v>45647.677407407406</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>41</v>
@@ -2243,7 +2225,7 @@
         <v>42</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>44</v>
@@ -2315,7 +2297,7 @@
         <v>5</v>
       </c>
       <c r="AC11" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AD11" s="15">
         <v>5</v>
@@ -2325,7 +2307,7 @@
       </c>
       <c r="AF11" s="11"/>
       <c r="AG11" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH11" s="14" t="s">
         <v>47</v>
@@ -2364,7 +2346,7 @@
         <v>43</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>44</v>
@@ -2433,7 +2415,7 @@
         <v>3</v>
       </c>
       <c r="AC12" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AD12" s="8">
         <v>5</v>
@@ -2443,7 +2425,7 @@
       </c>
       <c r="AF12" s="11"/>
       <c r="AG12" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AH12" s="7" t="s">
         <v>47</v>
@@ -2476,13 +2458,13 @@
         <v>49</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>44</v>
@@ -2551,7 +2533,7 @@
         <v>3</v>
       </c>
       <c r="AC13" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AD13" s="15">
         <v>5</v>
@@ -2588,19 +2570,19 @@
         <v>45648.943206018521</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>44</v>
@@ -2669,7 +2651,7 @@
         <v>5</v>
       </c>
       <c r="AC14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AD14" s="8">
         <v>5</v>
@@ -2678,16 +2660,16 @@
         <v>44</v>
       </c>
       <c r="AF14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AG14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AH14" s="7" t="s">
         <v>47</v>
       </c>
       <c r="AI14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AJ14" s="9">
         <v>4.5999999999999996</v>
@@ -2710,7 +2692,7 @@
         <v>45649.352129629631</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>49</v>
@@ -2722,7 +2704,7 @@
         <v>43</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>44</v>
@@ -2791,7 +2773,7 @@
         <v>5</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AD15" s="15">
         <v>5</v>
@@ -2800,16 +2782,16 @@
         <v>44</v>
       </c>
       <c r="AF15" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AG15" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AH15" s="14" t="s">
         <v>47</v>
       </c>
       <c r="AI15" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AJ15" s="9">
         <v>4.5999999999999996</v>
@@ -2832,7 +2814,7 @@
         <v>45649.464224537034</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>41</v>
@@ -2844,10 +2826,10 @@
         <v>43</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H16" s="8">
         <v>4</v>
@@ -2913,7 +2895,7 @@
         <v>2</v>
       </c>
       <c r="AC16" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD16" s="8">
         <v>2</v>
@@ -2922,10 +2904,10 @@
         <v>44</v>
       </c>
       <c r="AF16" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AG16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AH16" s="7" t="s">
         <v>47</v>
@@ -2952,19 +2934,19 @@
         <v>45649.489583333336</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>44</v>
@@ -3033,7 +3015,7 @@
         <v>3</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD17" s="15">
         <v>5</v>
@@ -3042,10 +3024,10 @@
         <v>44</v>
       </c>
       <c r="AF17" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AG17" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AH17" s="14" t="s">
         <v>47</v>
@@ -3072,7 +3054,7 @@
         <v>45649.589942129627</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>41</v>
@@ -3081,10 +3063,10 @@
         <v>42</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>44</v>
@@ -3153,7 +3135,7 @@
         <v>5</v>
       </c>
       <c r="AC18" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AD18" s="8">
         <v>5</v>
@@ -3163,7 +3145,7 @@
       </c>
       <c r="AF18" s="11"/>
       <c r="AG18" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH18" s="7" t="s">
         <v>47</v>
@@ -3190,7 +3172,7 @@
         <v>45649.653564814813</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>41</v>
@@ -3205,7 +3187,7 @@
         <v>44</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H19" s="15">
         <v>5</v>
@@ -3271,7 +3253,7 @@
         <v>5</v>
       </c>
       <c r="AC19" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD19" s="15">
         <v>1</v>
@@ -3280,10 +3262,10 @@
         <v>44</v>
       </c>
       <c r="AF19" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AG19" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AH19" s="14" t="s">
         <v>47</v>
@@ -3310,7 +3292,7 @@
         <v>45650.635405092595</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>49</v>
@@ -3319,10 +3301,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>44</v>
@@ -3391,7 +3373,7 @@
         <v>2</v>
       </c>
       <c r="AC20" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AD20" s="8">
         <v>5</v>
@@ -3401,13 +3383,13 @@
       </c>
       <c r="AF20" s="11"/>
       <c r="AG20" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH20" s="7" t="s">
         <v>47</v>
       </c>
       <c r="AI20" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AJ20" s="9">
         <v>5</v>
@@ -3430,19 +3412,19 @@
         <v>45653.372499999998</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>44</v>
@@ -3511,7 +3493,7 @@
         <v>4</v>
       </c>
       <c r="AC21" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AD21" s="15">
         <v>4</v>
@@ -3521,7 +3503,7 @@
       </c>
       <c r="AF21" s="11"/>
       <c r="AG21" s="14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AH21" s="14" t="s">
         <v>47</v>
@@ -3548,13 +3530,13 @@
         <v>45653.375439814816</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>43</v>
@@ -3629,7 +3611,7 @@
         <v>3</v>
       </c>
       <c r="AC22" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AD22" s="8">
         <v>4</v>
@@ -3639,7 +3621,7 @@
       </c>
       <c r="AF22" s="11"/>
       <c r="AG22" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AH22" s="7" t="s">
         <v>47</v>
@@ -3666,19 +3648,19 @@
         <v>45653.379432870373</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>44</v>
@@ -3747,7 +3729,7 @@
         <v>2</v>
       </c>
       <c r="AC23" s="14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AD23" s="15">
         <v>3</v>
@@ -3757,7 +3739,7 @@
       </c>
       <c r="AF23" s="11"/>
       <c r="AG23" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH23" s="14" t="s">
         <v>47</v>
@@ -3790,13 +3772,13 @@
         <v>49</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>44</v>
@@ -3865,7 +3847,7 @@
         <v>4</v>
       </c>
       <c r="AC24" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AD24" s="8">
         <v>5</v>
@@ -3875,7 +3857,7 @@
       </c>
       <c r="AF24" s="11"/>
       <c r="AG24" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AH24" s="7" t="s">
         <v>47</v>
@@ -3902,7 +3884,7 @@
         <v>45653.41783564815</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>41</v>
@@ -3917,7 +3899,7 @@
         <v>44</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H25" s="15">
         <v>2</v>
@@ -3983,7 +3965,7 @@
         <v>4</v>
       </c>
       <c r="AC25" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD25" s="15">
         <v>4</v>
@@ -3992,10 +3974,10 @@
         <v>44</v>
       </c>
       <c r="AF25" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AG25" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AH25" s="14" t="s">
         <v>47</v>
@@ -4031,13 +4013,13 @@
         <v>50</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H26" s="8">
         <v>2</v>
@@ -4103,7 +4085,7 @@
         <v>5</v>
       </c>
       <c r="AC26" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AD26" s="8">
         <v>5</v>
@@ -4112,16 +4094,16 @@
         <v>44</v>
       </c>
       <c r="AF26" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AG26" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH26" s="7" t="s">
         <v>47</v>
       </c>
       <c r="AI26" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AJ26" s="9">
         <v>3.6</v>
@@ -4144,7 +4126,7 @@
         <v>45653.418969907405</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>49</v>
@@ -4225,7 +4207,7 @@
         <v>5</v>
       </c>
       <c r="AC27" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD27" s="15">
         <v>3</v>
@@ -4235,7 +4217,7 @@
       </c>
       <c r="AF27" s="11"/>
       <c r="AG27" s="14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AH27" s="14" t="s">
         <v>47</v>
@@ -4262,7 +4244,7 @@
         <v>45653.419259259259</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>49</v>
@@ -4274,7 +4256,7 @@
         <v>43</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>44</v>
@@ -4343,7 +4325,7 @@
         <v>5</v>
       </c>
       <c r="AC28" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD28" s="8">
         <v>5</v>
@@ -4353,7 +4335,7 @@
       </c>
       <c r="AF28" s="11"/>
       <c r="AG28" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AH28" s="7" t="s">
         <v>47</v>
@@ -4386,7 +4368,7 @@
         <v>49</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>43</v>
@@ -4461,7 +4443,7 @@
         <v>5</v>
       </c>
       <c r="AC29" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AD29" s="15">
         <v>5</v>
@@ -4471,7 +4453,7 @@
       </c>
       <c r="AF29" s="11"/>
       <c r="AG29" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH29" s="14" t="s">
         <v>47</v>
@@ -4504,16 +4486,16 @@
         <v>49</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H30" s="8">
         <v>5</v>
@@ -4579,7 +4561,7 @@
         <v>3</v>
       </c>
       <c r="AC30" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AD30" s="8">
         <v>5</v>
@@ -4588,10 +4570,10 @@
         <v>44</v>
       </c>
       <c r="AF30" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AG30" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH30" s="7" t="s">
         <v>47</v>
@@ -4618,7 +4600,7 @@
         <v>45653.490902777776</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>49</v>
@@ -4630,7 +4612,7 @@
         <v>43</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>44</v>
@@ -4699,7 +4681,7 @@
         <v>5</v>
       </c>
       <c r="AC31" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AD31" s="15">
         <v>5</v>
@@ -4709,7 +4691,7 @@
       </c>
       <c r="AF31" s="11"/>
       <c r="AG31" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH31" s="14" t="s">
         <v>47</v>
@@ -4736,7 +4718,7 @@
         <v>45653.495810185188</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>49</v>
@@ -4745,7 +4727,7 @@
         <v>42</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>44</v>
@@ -4817,7 +4799,7 @@
         <v>2</v>
       </c>
       <c r="AC32" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD32" s="8">
         <v>5</v>
@@ -4827,7 +4809,7 @@
       </c>
       <c r="AF32" s="11"/>
       <c r="AG32" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AH32" s="7" t="s">
         <v>47</v>
@@ -4854,19 +4836,19 @@
         <v>45653.53806712963</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>44</v>
@@ -4945,13 +4927,13 @@
       </c>
       <c r="AF33" s="11"/>
       <c r="AG33" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AH33" s="14" t="s">
         <v>47</v>
       </c>
       <c r="AI33" s="14" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AJ33" s="9">
         <v>4.5999999999999996</v>
@@ -4974,22 +4956,22 @@
         <v>45653.562777777777</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H34" s="8">
         <v>3</v>
@@ -5055,7 +5037,7 @@
         <v>4</v>
       </c>
       <c r="AC34" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AD34" s="8">
         <v>2</v>
@@ -5064,10 +5046,10 @@
         <v>44</v>
       </c>
       <c r="AF34" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AG34" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH34" s="7" t="s">
         <v>47</v>
@@ -5100,16 +5082,16 @@
         <v>49</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H35" s="15">
         <v>3</v>
@@ -5175,7 +5157,7 @@
         <v>3</v>
       </c>
       <c r="AC35" s="14" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="AD35" s="15">
         <v>3</v>
@@ -5184,10 +5166,10 @@
         <v>44</v>
       </c>
       <c r="AF35" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AG35" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH35" s="14" t="s">
         <v>47</v>
@@ -5226,10 +5208,10 @@
         <v>43</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H36" s="8">
         <v>3</v>
@@ -5295,7 +5277,7 @@
         <v>5</v>
       </c>
       <c r="AC36" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AD36" s="8">
         <v>3</v>
@@ -5304,10 +5286,10 @@
         <v>44</v>
       </c>
       <c r="AF36" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AG36" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AH36" s="7" t="s">
         <v>47</v>
@@ -5334,19 +5316,19 @@
         <v>45653.654143518521</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>49</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>44</v>
@@ -5415,7 +5397,7 @@
         <v>3</v>
       </c>
       <c r="AC37" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AD37" s="15">
         <v>3</v>
@@ -5424,10 +5406,10 @@
         <v>44</v>
       </c>
       <c r="AF37" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AG37" s="14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AH37" s="14" t="s">
         <v>47</v>
@@ -5460,7 +5442,7 @@
         <v>41</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>43</v>
@@ -5535,7 +5517,7 @@
         <v>5</v>
       </c>
       <c r="AC38" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AD38" s="8">
         <v>4</v>
@@ -5545,7 +5527,7 @@
       </c>
       <c r="AF38" s="11"/>
       <c r="AG38" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH38" s="7" t="s">
         <v>47</v>
@@ -5572,16 +5554,16 @@
         <v>45653.768958333334</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>44</v>
@@ -5653,7 +5635,7 @@
         <v>4</v>
       </c>
       <c r="AC39" s="14" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AD39" s="15">
         <v>5</v>
@@ -5663,13 +5645,13 @@
       </c>
       <c r="AF39" s="11"/>
       <c r="AG39" s="14" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="AH39" s="14" t="s">
         <v>47</v>
       </c>
       <c r="AI39" s="14" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="AJ39" s="9">
         <v>4.4000000000000004</v>
@@ -5692,19 +5674,19 @@
         <v>45653.786203703705</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>44</v>
@@ -5773,7 +5755,7 @@
         <v>5</v>
       </c>
       <c r="AC40" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD40" s="8">
         <v>3</v>
@@ -5783,13 +5765,13 @@
       </c>
       <c r="AF40" s="11"/>
       <c r="AG40" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="AH40" s="7" t="s">
         <v>47</v>
       </c>
       <c r="AI40" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="AJ40" s="9">
         <v>4.4000000000000004</v>
@@ -5812,100 +5794,100 @@
         <v>45653.835219907407</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="F41" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" s="15">
+        <v>5</v>
+      </c>
+      <c r="I41" s="15">
+        <v>5</v>
+      </c>
+      <c r="J41" s="15">
+        <v>5</v>
+      </c>
+      <c r="K41" s="15">
+        <v>5</v>
+      </c>
+      <c r="L41" s="15">
+        <v>5</v>
+      </c>
+      <c r="M41" s="15">
+        <v>5</v>
+      </c>
+      <c r="N41" s="15">
+        <v>3</v>
+      </c>
+      <c r="O41" s="15">
+        <v>5</v>
+      </c>
+      <c r="P41" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="15">
+        <v>5</v>
+      </c>
+      <c r="R41" s="15">
+        <v>5</v>
+      </c>
+      <c r="S41" s="15">
+        <v>5</v>
+      </c>
+      <c r="T41" s="15">
+        <v>5</v>
+      </c>
+      <c r="U41" s="15">
+        <v>4</v>
+      </c>
+      <c r="V41" s="15">
+        <v>5</v>
+      </c>
+      <c r="W41" s="15">
+        <v>5</v>
+      </c>
+      <c r="X41" s="15">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="15">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="15">
+        <v>4</v>
+      </c>
+      <c r="AA41" s="15">
+        <v>4</v>
+      </c>
+      <c r="AB41" s="15">
+        <v>5</v>
+      </c>
+      <c r="AC41" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD41" s="15">
+        <v>4</v>
+      </c>
+      <c r="AE41" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF41" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG41" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H41" s="15">
-        <v>5</v>
-      </c>
-      <c r="I41" s="15">
-        <v>5</v>
-      </c>
-      <c r="J41" s="15">
-        <v>5</v>
-      </c>
-      <c r="K41" s="15">
-        <v>5</v>
-      </c>
-      <c r="L41" s="15">
-        <v>5</v>
-      </c>
-      <c r="M41" s="15">
-        <v>5</v>
-      </c>
-      <c r="N41" s="15">
-        <v>3</v>
-      </c>
-      <c r="O41" s="15">
-        <v>5</v>
-      </c>
-      <c r="P41" s="15">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="15">
-        <v>5</v>
-      </c>
-      <c r="R41" s="15">
-        <v>5</v>
-      </c>
-      <c r="S41" s="15">
-        <v>5</v>
-      </c>
-      <c r="T41" s="15">
-        <v>5</v>
-      </c>
-      <c r="U41" s="15">
-        <v>4</v>
-      </c>
-      <c r="V41" s="15">
-        <v>5</v>
-      </c>
-      <c r="W41" s="15">
-        <v>5</v>
-      </c>
-      <c r="X41" s="15">
-        <v>5</v>
-      </c>
-      <c r="Y41" s="15">
-        <v>5</v>
-      </c>
-      <c r="Z41" s="15">
-        <v>4</v>
-      </c>
-      <c r="AA41" s="15">
-        <v>4</v>
-      </c>
-      <c r="AB41" s="15">
-        <v>5</v>
-      </c>
-      <c r="AC41" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD41" s="15">
-        <v>4</v>
-      </c>
-      <c r="AE41" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF41" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG41" s="14" t="s">
-        <v>61</v>
       </c>
       <c r="AH41" s="14" t="s">
         <v>47</v>
@@ -5941,10 +5923,10 @@
         <v>42</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>44</v>
@@ -6013,7 +5995,7 @@
         <v>4</v>
       </c>
       <c r="AC42" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AD42" s="8">
         <v>5</v>
@@ -6023,7 +6005,7 @@
       </c>
       <c r="AF42" s="11"/>
       <c r="AG42" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH42" s="7" t="s">
         <v>47</v>
@@ -6050,19 +6032,19 @@
         <v>45654.4215625</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>49</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G43" s="14" t="s">
         <v>44</v>
@@ -6131,7 +6113,7 @@
         <v>3</v>
       </c>
       <c r="AC43" s="14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="AD43" s="15">
         <v>5</v>
@@ -6141,7 +6123,7 @@
       </c>
       <c r="AF43" s="11"/>
       <c r="AG43" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH43" s="14" t="s">
         <v>47</v>
@@ -6168,13 +6150,13 @@
         <v>45655.468229166669</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>43</v>
@@ -6249,7 +6231,7 @@
         <v>4</v>
       </c>
       <c r="AC44" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD44" s="8">
         <v>5</v>
@@ -6259,7 +6241,7 @@
       </c>
       <c r="AF44" s="11"/>
       <c r="AG44" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="AH44" s="7" t="s">
         <v>47</v>
@@ -6292,13 +6274,13 @@
         <v>49</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>44</v>
@@ -6367,7 +6349,7 @@
         <v>3</v>
       </c>
       <c r="AC45" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD45" s="15">
         <v>5</v>
@@ -6377,7 +6359,7 @@
       </c>
       <c r="AF45" s="11"/>
       <c r="AG45" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH45" s="14" t="s">
         <v>47</v>
@@ -6416,7 +6398,7 @@
         <v>43</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>44</v>
@@ -6485,7 +6467,7 @@
         <v>5</v>
       </c>
       <c r="AC46" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD46" s="8">
         <v>5</v>
@@ -6495,7 +6477,7 @@
       </c>
       <c r="AF46" s="11"/>
       <c r="AG46" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="AH46" s="7" t="s">
         <v>47</v>
@@ -6522,100 +6504,100 @@
         <v>45656.094918981478</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>49</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="F47" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="15">
+        <v>5</v>
+      </c>
+      <c r="I47" s="15">
+        <v>5</v>
+      </c>
+      <c r="J47" s="15">
+        <v>5</v>
+      </c>
+      <c r="K47" s="15">
+        <v>5</v>
+      </c>
+      <c r="L47" s="15">
+        <v>5</v>
+      </c>
+      <c r="M47" s="15">
+        <v>3</v>
+      </c>
+      <c r="N47" s="15">
+        <v>5</v>
+      </c>
+      <c r="O47" s="15">
+        <v>5</v>
+      </c>
+      <c r="P47" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>3</v>
+      </c>
+      <c r="R47" s="15">
+        <v>5</v>
+      </c>
+      <c r="S47" s="15">
+        <v>5</v>
+      </c>
+      <c r="T47" s="15">
+        <v>5</v>
+      </c>
+      <c r="U47" s="15">
+        <v>3</v>
+      </c>
+      <c r="V47" s="15">
+        <v>3</v>
+      </c>
+      <c r="W47" s="15">
+        <v>5</v>
+      </c>
+      <c r="X47" s="15">
+        <v>4</v>
+      </c>
+      <c r="Y47" s="15">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="15">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="15">
+        <v>5</v>
+      </c>
+      <c r="AB47" s="15">
+        <v>5</v>
+      </c>
+      <c r="AC47" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD47" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE47" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF47" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG47" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H47" s="15">
-        <v>5</v>
-      </c>
-      <c r="I47" s="15">
-        <v>5</v>
-      </c>
-      <c r="J47" s="15">
-        <v>5</v>
-      </c>
-      <c r="K47" s="15">
-        <v>5</v>
-      </c>
-      <c r="L47" s="15">
-        <v>5</v>
-      </c>
-      <c r="M47" s="15">
-        <v>3</v>
-      </c>
-      <c r="N47" s="15">
-        <v>5</v>
-      </c>
-      <c r="O47" s="15">
-        <v>5</v>
-      </c>
-      <c r="P47" s="15">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="15">
-        <v>3</v>
-      </c>
-      <c r="R47" s="15">
-        <v>5</v>
-      </c>
-      <c r="S47" s="15">
-        <v>5</v>
-      </c>
-      <c r="T47" s="15">
-        <v>5</v>
-      </c>
-      <c r="U47" s="15">
-        <v>3</v>
-      </c>
-      <c r="V47" s="15">
-        <v>3</v>
-      </c>
-      <c r="W47" s="15">
-        <v>5</v>
-      </c>
-      <c r="X47" s="15">
-        <v>4</v>
-      </c>
-      <c r="Y47" s="15">
-        <v>5</v>
-      </c>
-      <c r="Z47" s="15">
-        <v>5</v>
-      </c>
-      <c r="AA47" s="15">
-        <v>5</v>
-      </c>
-      <c r="AB47" s="15">
-        <v>5</v>
-      </c>
-      <c r="AC47" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD47" s="15">
-        <v>5</v>
-      </c>
-      <c r="AE47" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF47" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG47" s="14" t="s">
-        <v>61</v>
       </c>
       <c r="AH47" s="14" t="s">
         <v>47</v>
@@ -6642,13 +6624,13 @@
         <v>45656.402280092596</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>43</v>
@@ -6657,7 +6639,7 @@
         <v>44</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H48" s="8">
         <v>4</v>
@@ -6723,7 +6705,7 @@
         <v>5</v>
       </c>
       <c r="AC48" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AD48" s="8">
         <v>4</v>
@@ -6732,16 +6714,16 @@
         <v>44</v>
       </c>
       <c r="AF48" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AG48" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="AH48" s="7" t="s">
         <v>47</v>
       </c>
       <c r="AI48" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="AJ48" s="9">
         <v>4.5999999999999996</v>
@@ -6764,19 +6746,19 @@
         <v>45656.402372685188</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>49</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E49" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G49" s="14" t="s">
         <v>44</v>
@@ -6845,7 +6827,7 @@
         <v>5</v>
       </c>
       <c r="AC49" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AD49" s="15">
         <v>5</v>
@@ -6855,7 +6837,7 @@
       </c>
       <c r="AF49" s="11"/>
       <c r="AG49" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH49" s="14" t="s">
         <v>47</v>
@@ -6882,7 +6864,7 @@
         <v>45656.914282407408</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>49</v>
@@ -6890,11 +6872,11 @@
       <c r="D50" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="7" t="s">
-        <v>128</v>
+      <c r="E50" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>44</v>
@@ -6963,7 +6945,7 @@
         <v>4</v>
       </c>
       <c r="AC50" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AD50" s="8">
         <v>5</v>
@@ -6973,7 +6955,7 @@
       </c>
       <c r="AF50" s="11"/>
       <c r="AG50" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH50" s="7" t="s">
         <v>47</v>
@@ -7000,7 +6982,7 @@
         <v>45657.642118055555</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>41</v>
@@ -7081,7 +7063,7 @@
         <v>2</v>
       </c>
       <c r="AC51" s="14" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AD51" s="15">
         <v>4</v>
@@ -7091,13 +7073,13 @@
       </c>
       <c r="AF51" s="11"/>
       <c r="AG51" s="14" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AH51" s="14" t="s">
         <v>47</v>
       </c>
       <c r="AI51" s="14" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="AJ51" s="9">
         <v>4</v>
@@ -7126,7 +7108,7 @@
         <v>49</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>43</v>
@@ -7201,7 +7183,7 @@
         <v>5</v>
       </c>
       <c r="AC52" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AD52" s="8">
         <v>5</v>
@@ -7211,7 +7193,7 @@
       </c>
       <c r="AF52" s="11"/>
       <c r="AG52" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AH52" s="7" t="s">
         <v>47</v>
@@ -7238,19 +7220,19 @@
         <v>45658.449629629627</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E53" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>44</v>
@@ -7319,7 +7301,7 @@
         <v>5</v>
       </c>
       <c r="AC53" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AD53" s="15">
         <v>5</v>
@@ -7329,7 +7311,7 @@
       </c>
       <c r="AF53" s="11"/>
       <c r="AG53" s="14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AH53" s="14" t="s">
         <v>47</v>
@@ -7356,22 +7338,22 @@
         <v>45658.828310185185</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H54" s="8">
         <v>5</v>
@@ -7437,7 +7419,7 @@
         <v>4</v>
       </c>
       <c r="AC54" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AD54" s="8">
         <v>4</v>
@@ -7446,10 +7428,10 @@
         <v>44</v>
       </c>
       <c r="AF54" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AG54" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AH54" s="7" t="s">
         <v>47</v>
@@ -7557,7 +7539,7 @@
         <v>5</v>
       </c>
       <c r="AC55" s="14" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AD55" s="15">
         <v>5</v>
@@ -7567,7 +7549,7 @@
       </c>
       <c r="AF55" s="11"/>
       <c r="AG55" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH55" s="14" t="s">
         <v>47</v>
@@ -7594,7 +7576,7 @@
         <v>45659.460474537038</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>49</v>
@@ -7606,7 +7588,7 @@
         <v>43</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>44</v>
@@ -7675,7 +7657,7 @@
         <v>5</v>
       </c>
       <c r="AC56" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AD56" s="8">
         <v>5</v>
@@ -7685,13 +7667,13 @@
       </c>
       <c r="AF56" s="11"/>
       <c r="AG56" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AH56" s="7" t="s">
         <v>47</v>
       </c>
       <c r="AI56" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="AJ56" s="9">
         <v>1.4</v>
@@ -7720,7 +7702,7 @@
         <v>41</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>43</v>
@@ -7729,7 +7711,7 @@
         <v>44</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H57" s="15">
         <v>4</v>
@@ -7795,7 +7777,7 @@
         <v>4</v>
       </c>
       <c r="AC57" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AD57" s="15">
         <v>5</v>
@@ -7804,10 +7786,10 @@
         <v>44</v>
       </c>
       <c r="AF57" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AG57" s="14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="AH57" s="14" t="s">
         <v>47</v>
@@ -7834,22 +7816,22 @@
         <v>45666.357303240744</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>138</v>
+        <v>61</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H58" s="8">
         <v>3</v>
@@ -7915,7 +7897,7 @@
         <v>5</v>
       </c>
       <c r="AC58" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AD58" s="8">
         <v>5</v>
@@ -7924,10 +7906,10 @@
         <v>44</v>
       </c>
       <c r="AF58" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AG58" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="AH58" s="7" t="s">
         <v>47</v>
@@ -8045,7 +8027,7 @@
       </c>
       <c r="AF59" s="11"/>
       <c r="AG59" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH59" s="14" t="s">
         <v>47</v>
@@ -8072,13 +8054,13 @@
         <v>45671.430706018517</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C60" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E60" s="17" t="s">
         <v>43</v>
@@ -8153,7 +8135,7 @@
         <v>5</v>
       </c>
       <c r="AC60" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD60" s="18">
         <v>4</v>
@@ -8163,7 +8145,7 @@
       </c>
       <c r="AF60" s="11"/>
       <c r="AG60" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH60" s="17" t="s">
         <v>47</v>
